--- a/temp/pages/StructureDefinition-rtlsLocation.xlsx
+++ b/temp/pages/StructureDefinition-rtlsLocation.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T19:07:59-05:00</t>
+    <t>2025-06-24T13:00:09-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsLocation.xlsx
+++ b/temp/pages/StructureDefinition-rtlsLocation.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:00:09-05:00</t>
+    <t>2025-06-24T13:13:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsLocation.xlsx
+++ b/temp/pages/StructureDefinition-rtlsLocation.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:13:18-05:00</t>
+    <t>2025-06-24T13:15:27-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsLocation.xlsx
+++ b/temp/pages/StructureDefinition-rtlsLocation.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:15:27-05:00</t>
+    <t>2025-06-24T13:30:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsLocation.xlsx
+++ b/temp/pages/StructureDefinition-rtlsLocation.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:30:24-05:00</t>
+    <t>2025-06-24T13:47:41-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsLocation.xlsx
+++ b/temp/pages/StructureDefinition-rtlsLocation.xlsx
@@ -63,13 +63,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T13:47:41-05:00</t>
+    <t>2025-06-25T12:47:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - Patient Administration Work Group</t>
+    <t>HL7 International / Patient Administration</t>
   </si>
   <si>
     <t>Contact</t>

--- a/temp/pages/StructureDefinition-rtlsLocation.xlsx
+++ b/temp/pages/StructureDefinition-rtlsLocation.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T12:47:47-05:00</t>
+    <t>2025-07-29T13:31:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1250,17 +1250,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.19140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.02734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.02734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.4296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="20.55859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1269,24 +1269,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.44140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.46484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="32.29296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.2265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.92578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.8828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="56.8203125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="59.51953125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/temp/pages/StructureDefinition-rtlsLocation.xlsx
+++ b/temp/pages/StructureDefinition-rtlsLocation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$48</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="339">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T15:50:11-05:00</t>
+    <t>2025-08-04T22:10:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>null (http://hl7.org/Special/committees/pafm)</t>
+    <t>null (http://www.hl7.org/Special/committees/pafm)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -484,6 +484,191 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>Location.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Location.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Location.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Location.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Location.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Location.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Location.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
     <t>Location.status</t>
   </si>
   <si>
@@ -491,9 +676,6 @@
   </si>
   <si>
     <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>Indicates whether the location is still in use.</t>
@@ -527,14 +709,7 @@
     <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Location.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Name of the location as used by humans</t>
@@ -607,17 +782,10 @@
     <t>Location.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Type of function performed</t>
   </si>
   <si>
     <t>Indicates the type of function performed at the location.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
@@ -710,22 +878,7 @@
     <t>Location.position.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Location.position.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Location.position.modifierExtension</t>
@@ -780,10 +933,6 @@
   </si>
   <si>
     <t>Location.managingOrganization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Organization responsible for provisioning and upkeep</t>
@@ -1241,7 +1390,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL40"/>
+  <dimension ref="A1:AL48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1250,17 +1399,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.19140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.02734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.02734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.4296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="20.55859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1269,24 +1418,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.44140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.46484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="32.29296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.92578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.8828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="56.8203125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="89.40625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2505,19 +2654,19 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2544,68 +2693,68 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>156</v>
-      </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
@@ -2614,18 +2763,20 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2650,57 +2801,57 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2717,24 +2868,26 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -2758,13 +2911,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2782,7 +2935,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2797,7 +2950,7 @@
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
@@ -2805,10 +2958,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2819,7 +2972,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -2828,22 +2981,22 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2868,13 +3021,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -2892,13 +3045,13 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
@@ -2907,7 +3060,7 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -2915,10 +3068,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2926,13 +3079,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>77</v>
@@ -2941,17 +3094,19 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -2964,7 +3119,7 @@
         <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>77</v>
@@ -3000,7 +3155,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3015,7 +3170,7 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3023,10 +3178,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3034,13 +3189,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>77</v>
@@ -3049,20 +3204,18 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3074,7 +3227,7 @@
         <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>77</v>
@@ -3086,13 +3239,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3110,7 +3263,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3125,18 +3278,18 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3147,7 +3300,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3159,13 +3312,13 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3192,13 +3345,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3216,13 +3369,13 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
@@ -3231,18 +3384,18 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3253,7 +3406,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3262,18 +3415,20 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
@@ -3322,13 +3477,13 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -3337,7 +3492,7 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -3345,10 +3500,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3365,26 +3520,22 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3408,13 +3559,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -3432,7 +3583,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3447,18 +3598,18 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3481,18 +3632,16 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -3516,13 +3665,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -3540,7 +3689,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3555,18 +3704,18 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>188</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3586,21 +3735,21 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>77</v>
       </c>
@@ -3648,7 +3797,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3663,7 +3812,7 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -3671,10 +3820,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3685,7 +3834,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -3697,16 +3846,20 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -3754,22 +3907,22 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>164</v>
+        <v>227</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -3777,21 +3930,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -3800,21 +3953,21 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -3862,22 +4015,22 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -3885,45 +4038,45 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3948,13 +4101,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -3972,33 +4125,33 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4006,10 +4159,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4018,16 +4171,16 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4054,13 +4207,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4078,13 +4231,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4093,18 +4246,18 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4112,10 +4265,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
@@ -4127,13 +4280,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4184,13 +4337,13 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
@@ -4199,7 +4352,7 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4207,10 +4360,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4233,16 +4386,20 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4290,7 +4447,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4305,7 +4462,7 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -4313,10 +4470,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4339,19 +4496,17 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4376,13 +4531,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -4400,7 +4555,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4415,18 +4570,18 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4449,17 +4604,17 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4508,7 +4663,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -4523,7 +4678,7 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -4531,10 +4686,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4545,7 +4700,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -4557,17 +4712,15 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>152</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4616,22 +4769,22 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>258</v>
+        <v>154</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>262</v>
+        <v>155</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -4639,21 +4792,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -4665,15 +4818,17 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -4722,22 +4877,22 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -4745,14 +4900,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -4765,24 +4920,26 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>227</v>
+        <v>282</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -4830,7 +4987,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -4845,7 +5002,7 @@
         <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -4853,46 +5010,42 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
       </c>
@@ -4940,22 +5093,22 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -4963,10 +5116,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4974,10 +5127,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -4989,13 +5142,13 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5022,13 +5175,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -5046,13 +5199,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5061,7 +5214,7 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5069,10 +5222,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5095,13 +5248,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5152,7 +5305,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5167,7 +5320,7 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5175,10 +5328,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5198,19 +5351,23 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5258,7 +5415,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5273,7 +5430,7 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5281,10 +5438,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5307,16 +5464,18 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5364,7 +5523,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5379,7 +5538,7 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -5387,10 +5546,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5401,7 +5560,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -5413,15 +5572,17 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>166</v>
+        <v>272</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -5470,13 +5631,13 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
@@ -5485,7 +5646,7 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>164</v>
+        <v>311</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -5493,10 +5654,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5507,7 +5668,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -5519,18 +5680,16 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>287</v>
+        <v>152</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>288</v>
+        <v>153</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>289</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -5578,29 +5737,885 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>285</v>
+        <v>154</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="H41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AK43" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL40">
+  <autoFilter ref="A1:AL48">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5610,7 +6625,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI39">
+  <conditionalFormatting sqref="A2:AI47">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/temp/pages/StructureDefinition-rtlsLocation.xlsx
+++ b/temp/pages/StructureDefinition-rtlsLocation.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-04T22:10:47-05:00</t>
+    <t>2025-08-05T14:07:30-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1399,17 +1399,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.02734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.19140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.19140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.55859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="19.4296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1418,24 +1418,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.92578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.8828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.46484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.29296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="89.40625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="86.17578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/temp/pages/StructureDefinition-rtlsLocation.xlsx
+++ b/temp/pages/StructureDefinition-rtlsLocation.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T14:07:30-05:00</t>
+    <t>2025-08-05T17:07:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsLocation.xlsx
+++ b/temp/pages/StructureDefinition-rtlsLocation.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T17:07:14-05:00</t>
+    <t>2025-08-05T17:18:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsLocation.xlsx
+++ b/temp/pages/StructureDefinition-rtlsLocation.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-05T17:18:07-05:00</t>
+    <t>2025-08-06T08:42:49-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsLocation.xlsx
+++ b/temp/pages/StructureDefinition-rtlsLocation.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T08:42:49-05:00</t>
+    <t>2025-08-06T11:48:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsLocation.xlsx
+++ b/temp/pages/StructureDefinition-rtlsLocation.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T11:48:33-05:00</t>
+    <t>2025-08-06T12:28:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsLocation.xlsx
+++ b/temp/pages/StructureDefinition-rtlsLocation.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-06T12:28:55-05:00</t>
+    <t>2025-08-07T11:40:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-rtlsLocation.xlsx
+++ b/temp/pages/StructureDefinition-rtlsLocation.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-07T11:40:07-05:00</t>
+    <t>2025-08-07T11:52:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
